--- a/src/main/java/com/bridgelabz/fb/testdata/FbLoginData.xlsx
+++ b/src/main/java/com/bridgelabz/fb/testdata/FbLoginData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t xml:space="preserve">testdata@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotz2209@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xyz@123445</t>
   </si>
 </sst>
 </file>
@@ -38,7 +47,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -59,6 +68,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -109,7 +125,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -120,6 +136,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -199,15 +219,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.16"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
@@ -228,7 +248,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>7896547896</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="rotz2209@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="test@123"/>
+    <hyperlink ref="B4" r:id="rId3" display="xyz@123445"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/main/java/com/bridgelabz/fb/testdata/FbLoginData.xlsx
+++ b/src/main/java/com/bridgelabz/fb/testdata/FbLoginData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Email</t>
   </si>
@@ -30,15 +30,6 @@
   <si>
     <t xml:space="preserve">testdata@123</t>
   </si>
-  <si>
-    <t xml:space="preserve">rotz2209@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xyz@123445</t>
-  </si>
 </sst>
 </file>
 
@@ -47,7 +38,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -68,13 +59,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -125,7 +109,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -136,10 +120,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -219,10 +199,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -248,28 +228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>7896547896</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="rotz2209@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="test@123"/>
-    <hyperlink ref="B4" r:id="rId3" display="xyz@123445"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
